--- a/BalanceSheet/MAS_bal.xlsx
+++ b/BalanceSheet/MAS_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-78000000.0</v>
+        <v>948000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-23000000.0</v>
+        <v>876000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-54000000.0</v>
+        <v>811000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>9000000.0</v>
+        <v>750000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-21000000.0</v>
+        <v>756000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>754000000.0</v>
@@ -1894,19 +1894,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-139000000.0</v>
+        <v>925000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-11000000.0</v>
+        <v>893000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-18000000.0</v>
+        <v>933000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>256000000.0</v>
+        <v>845000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>105000000.0</v>
+        <v>743000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>697000000.0</v>
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-3000000.0</v>
+        <v>-89000000.0</v>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>2166000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>2276000000.0</v>
+        <v>2114000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>2296000000.0</v>
@@ -4743,7 +4743,7 @@
         <v>2933000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>2973000000.0</v>
+        <v>2811000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>2771000000.0</v>
